--- a/medicine/Mort/Nécropole_nationale_de_Vignemont/Nécropole_nationale_de_Vignemont.xlsx
+++ b/medicine/Mort/Nécropole_nationale_de_Vignemont/Nécropole_nationale_de_Vignemont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Vignemont</t>
+          <t>Nécropole_nationale_de_Vignemont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Vignemeont est un cimetière militaire français de la Première Guerre mondiale situé sur le territoire de la commune de Vignemont dans le département de l'Oise.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Vignemont</t>
+          <t>Nécropole_nationale_de_Vignemont</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale est située au bord de la route départementale 41, entre Vignemont et Marquéglise.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Vignemont</t>
+          <t>Nécropole_nationale_de_Vignemont</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale de Vignemeont a été créée en 1918, au cours de la bataille du Matz. De 1919 à 1921, ont été regroupés ici les corps provenant de cimetières provisoires des communes d'Élincourt-Sainte-Marguerite, Conchy-les-Pots, Ribécourt-Dreslincourt, Cambronne-lès-Ribécourt, Mélicocq, Ressons-sur-Matz, La Berlière, Boulogne-la-Grasse, Orvillers-Sorel, Ricquebourg, Biermont, Cuvilly, Gury, Mareuil-la-Motte, Antheuil, Plessis-de-Roye, Saint-Léger-aux-Bois, Monchy-Humières, Gournay-sur-Aronde et des hameaux de Manceau, Saint-Claude, Bellenglise et Saint-Maur.
-Se trouvent également dans cette nécropole les corps de dix soldats britanniques et ceux de quatre soldats allemands[1].
+Se trouvent également dans cette nécropole les corps de dix soldats britanniques et ceux de quatre soldats allemands.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_de_Vignemont</t>
+          <t>Nécropole_nationale_de_Vignemont</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nécropole a une superficie de 1,01 ha, c'est, par le nombre de soldats inhumés, l'une des plus importantes nécropoles nationales du département de l'Oise. Elle a été édifiée en 1918. Elle rassemble 3 108 corps dont 2 167 en tombes individuelles et 955 en ossuaires[2]. Elle jouxte le cimetière militaire allemand[3].
-Dix corps de soldats britanniques et quatre de soldats allemands reposent également dans ce cimetière[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nécropole a une superficie de 1,01 ha, c'est, par le nombre de soldats inhumés, l'une des plus importantes nécropoles nationales du département de l'Oise. Elle a été édifiée en 1918. Elle rassemble 3 108 corps dont 2 167 en tombes individuelles et 955 en ossuaires. Elle jouxte le cimetière militaire allemand.
+Dix corps de soldats britanniques et quatre de soldats allemands reposent également dans ce cimetière.
 </t>
         </is>
       </c>
